--- a/Libraries/Vehicle/Tire/Testrig_4Post/sm_car_data_Tire_Testrig_Post.xlsx
+++ b/Libraries/Vehicle/Tire/Testrig_4Post/sm_car_data_Tire_Testrig_Post.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt\Libraries\Vehicle\Tire\Testrig_4Post\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF2E3BF8-7D02-49E3-9728-DFA3506F4155}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90FBD0C2-A4C3-4595-BC4F-AB30B8BC9C61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="868" xr2:uid="{77C5F530-BF82-43C8-8187-4F4154957BDB}"/>
+    <workbookView xWindow="6996" yWindow="2316" windowWidth="20424" windowHeight="10212" tabRatio="868" activeTab="4" xr2:uid="{77C5F530-BF82-43C8-8187-4F4154957BDB}"/>
   </bookViews>
   <sheets>
     <sheet name="Tir_213_40R21" sheetId="7" r:id="rId1"/>
     <sheet name="Tir_235_50R24" sheetId="8" r:id="rId2"/>
     <sheet name="Tir_270_70R22" sheetId="6" r:id="rId3"/>
     <sheet name="Tir_145_70R13" sheetId="9" r:id="rId4"/>
+    <sheet name="Tir_430_50R38" sheetId="10" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="37">
   <si>
     <t>Units</t>
   </si>
@@ -142,12 +145,18 @@
   </si>
   <si>
     <t>Tire</t>
+  </si>
+  <si>
+    <t>Testrig_Post_430_50R38</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -212,7 +221,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -256,11 +265,47 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="29">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -744,7 +789,7 @@
   </sheetPr>
   <dimension ref="A1:AA27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E9" sqref="E9"/>
       <selection pane="topRight" activeCell="E9" sqref="E9"/>
@@ -1227,37 +1272,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C19:C22 A19:A22 C13:C14 A4 C4:D4 A13:A14">
-    <cfRule type="cellIs" dxfId="23" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="7" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24">
-    <cfRule type="cellIs" dxfId="22" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="5" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="cellIs" dxfId="21" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="6" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:A7 C5:C7 C11:C12 A11:A12 C9 A9">
-    <cfRule type="cellIs" dxfId="20" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="19" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10 A10">
-    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8 A8">
-    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1776,37 +1821,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C19:C22 A19:A22 C4:D4 A4 C13:C14 A13:A14">
-    <cfRule type="cellIs" dxfId="16" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="7" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24">
-    <cfRule type="cellIs" dxfId="15" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="5" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="cellIs" dxfId="14" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="6" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:D5 C6:C7 A5:A7 A9 C9">
-    <cfRule type="cellIs" dxfId="13" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:C12 A11:A12">
-    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10 A10">
-    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8 A8">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2324,27 +2369,27 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C19:C22 A19:A22 C4:D4 A4 C14 A13:A14 C13:D13">
-    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="6" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24">
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="5" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:D5 C6:C10 A5:A10">
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:C12 A11:A12">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2862,6 +2907,543 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C19:C22 A19:A22 C4:D4 A4 C14 A13:A14 C13:D13">
+    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A24">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23">
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5:D5 C6:C10 A5:A10">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11:C12 A11:A12">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38495685-7924-4403-B99F-D47523660248}">
+  <sheetPr>
+    <tabColor theme="3" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:AA27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="E9" sqref="E9"/>
+      <selection pane="topRight" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomRight" activeCell="H16" sqref="H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.44140625" style="19" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="6" max="7" width="10" customWidth="1"/>
+    <col min="8" max="8" width="11.21875" customWidth="1"/>
+    <col min="9" max="10" width="6.6640625" customWidth="1"/>
+    <col min="11" max="11" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="6.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
+      <c r="U2"/>
+      <c r="V2"/>
+      <c r="W2"/>
+      <c r="X2"/>
+      <c r="Y2"/>
+      <c r="Z2"/>
+      <c r="AA2"/>
+    </row>
+    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="R3"/>
+      <c r="S3"/>
+      <c r="T3"/>
+      <c r="U3"/>
+      <c r="V3"/>
+      <c r="W3"/>
+      <c r="X3"/>
+      <c r="Y3"/>
+      <c r="Z3"/>
+      <c r="AA3"/>
+    </row>
+    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="R4"/>
+      <c r="S4"/>
+      <c r="T4"/>
+      <c r="U4"/>
+      <c r="V4"/>
+      <c r="W4"/>
+      <c r="X4"/>
+      <c r="Y4"/>
+      <c r="Z4"/>
+      <c r="AA4"/>
+    </row>
+    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="15"/>
+      <c r="H5" s="8">
+        <v>0.67310000000000003</v>
+      </c>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="S5"/>
+      <c r="T5"/>
+      <c r="U5"/>
+      <c r="V5"/>
+      <c r="W5"/>
+      <c r="X5"/>
+      <c r="Y5"/>
+      <c r="Z5"/>
+      <c r="AA5"/>
+    </row>
+    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="7">
+        <v>0.47752</v>
+      </c>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6" s="7"/>
+      <c r="M6"/>
+      <c r="N6" s="16"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6"/>
+      <c r="T6"/>
+    </row>
+    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="21">
+        <v>0.42951</v>
+      </c>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="M7" s="16"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7"/>
+      <c r="T7"/>
+    </row>
+    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="7">
+        <v>0.41</v>
+      </c>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="M8" s="16"/>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
+      <c r="Q8"/>
+      <c r="R8"/>
+      <c r="S8"/>
+      <c r="T8"/>
+    </row>
+    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="7">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="7">
+        <v>10.5</v>
+      </c>
+      <c r="I11" s="7">
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="7">
+        <v>0</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="15"/>
+      <c r="H13" s="7">
+        <v>1000000</v>
+      </c>
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13"/>
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13"/>
+      <c r="P13"/>
+      <c r="Q13"/>
+      <c r="R13"/>
+      <c r="S13"/>
+      <c r="T13"/>
+      <c r="U13"/>
+      <c r="V13"/>
+      <c r="W13"/>
+      <c r="X13"/>
+      <c r="Y13"/>
+      <c r="Z13"/>
+      <c r="AA13"/>
+    </row>
+    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0</v>
+      </c>
+      <c r="G15" s="7">
+        <v>0</v>
+      </c>
+      <c r="H15" s="7">
+        <v>0</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="7">
+        <v>0</v>
+      </c>
+      <c r="G16" s="7">
+        <v>0</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="17"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="17"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+    </row>
+    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+    </row>
+    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+    </row>
+    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="17"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+    </row>
+    <row r="22" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="17"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+    </row>
+    <row r="23" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="H23" s="18"/>
+    </row>
+    <row r="24" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="H24" s="18"/>
+    </row>
+    <row r="25" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="19"/>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
+      <c r="S26" s="6"/>
+      <c r="T26" s="6"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="6"/>
+      <c r="S27" s="6"/>
+      <c r="T27" s="6"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C19:C22 A19:A22 C4:D4 A4 C14 A13:A14 C13:D13">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"class"</formula>
     </cfRule>

--- a/Libraries/Vehicle/Tire/Testrig_4Post/sm_car_data_Tire_Testrig_Post.xlsx
+++ b/Libraries/Vehicle/Tire/Testrig_4Post/sm_car_data_Tire_Testrig_Post.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt\Libraries\Vehicle\Tire\Testrig_4Post\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90FBD0C2-A4C3-4595-BC4F-AB30B8BC9C61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A7F431A-F90B-45D5-BA2F-01D3EA74D000}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6996" yWindow="2316" windowWidth="20424" windowHeight="10212" tabRatio="868" activeTab="4" xr2:uid="{77C5F530-BF82-43C8-8187-4F4154957BDB}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11430" tabRatio="868" firstSheet="1" activeTab="5" xr2:uid="{77C5F530-BF82-43C8-8187-4F4154957BDB}"/>
   </bookViews>
   <sheets>
     <sheet name="Tir_213_40R21" sheetId="7" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Tir_270_70R22" sheetId="6" r:id="rId3"/>
     <sheet name="Tir_145_70R13" sheetId="9" r:id="rId4"/>
     <sheet name="Tir_430_50R38" sheetId="10" r:id="rId5"/>
+    <sheet name="Tir_190_50R10" sheetId="11" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="40">
   <si>
     <t>Units</t>
   </si>
@@ -148,6 +149,15 @@
   </si>
   <si>
     <t>Testrig_Post_430_50R38</t>
+  </si>
+  <si>
+    <t>Testrig_Post_190_50R10</t>
+  </si>
+  <si>
+    <t>Vehicle.Chassis.SuspA1.Linkage.Upright.sWheelCentre</t>
+  </si>
+  <si>
+    <t>Vehicle.Chassis.Body.sAxleA1</t>
   </si>
 </sst>
 </file>
@@ -270,7 +280,56 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="29">
+  <dxfs count="36">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -797,21 +856,21 @@
       <selection pane="bottomRight" activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="19" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
     <col min="6" max="7" width="10" customWidth="1"/>
-    <col min="8" max="8" width="10.88671875" customWidth="1"/>
-    <col min="9" max="10" width="6.6640625" customWidth="1"/>
-    <col min="11" max="11" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="6.6640625" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" customWidth="1"/>
+    <col min="9" max="10" width="6.7109375" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -831,7 +890,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -862,7 +921,7 @@
       <c r="Z2"/>
       <c r="AA2"/>
     </row>
-    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -892,7 +951,7 @@
       <c r="Z3"/>
       <c r="AA3"/>
     </row>
-    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
@@ -923,7 +982,7 @@
       <c r="Z4"/>
       <c r="AA4"/>
     </row>
-    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>8</v>
       </c>
@@ -955,7 +1014,7 @@
       <c r="Z5"/>
       <c r="AA5"/>
     </row>
-    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>9</v>
       </c>
@@ -971,7 +1030,7 @@
       </c>
       <c r="I6"/>
     </row>
-    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>10</v>
       </c>
@@ -987,7 +1046,7 @@
       </c>
       <c r="I7"/>
     </row>
-    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1004,7 +1063,7 @@
       </c>
       <c r="I8"/>
     </row>
-    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
@@ -1019,7 +1078,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>19</v>
       </c>
@@ -1034,7 +1093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>13</v>
       </c>
@@ -1052,7 +1111,7 @@
         <v>0.73599999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>14</v>
       </c>
@@ -1070,7 +1129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>22</v>
       </c>
@@ -1088,7 +1147,7 @@
         <v>209652</v>
       </c>
     </row>
-    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
@@ -1106,7 +1165,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1131,7 +1190,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>25</v>
       </c>
@@ -1156,13 +1215,13 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="17"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -1184,7 +1243,7 @@
       <c r="S18" s="6"/>
       <c r="T18" s="6"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="17"/>
       <c r="B19" s="6"/>
       <c r="C19" s="17"/>
@@ -1206,7 +1265,7 @@
       <c r="S19" s="6"/>
       <c r="T19" s="6"/>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="17"/>
       <c r="B20" s="6"/>
       <c r="C20" s="17"/>
@@ -1217,7 +1276,7 @@
       <c r="H20" s="7"/>
       <c r="I20" s="6"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="17"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -1228,7 +1287,7 @@
       <c r="H21" s="7"/>
       <c r="I21" s="6"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="17"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -1239,7 +1298,7 @@
       <c r="H22" s="7"/>
       <c r="I22" s="6"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="17"/>
       <c r="B23" s="6"/>
       <c r="C23" s="17"/>
@@ -1250,7 +1309,7 @@
       <c r="H23" s="18"/>
       <c r="I23" s="6"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="17"/>
       <c r="B24" s="6"/>
       <c r="C24" s="17"/>
@@ -1261,48 +1320,48 @@
       <c r="H24" s="18"/>
       <c r="I24" s="6"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="I25" s="6"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="I26" s="6"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="I27" s="6"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C19:C22 A19:A22 C13:C14 A4 C4:D4 A13:A14">
-    <cfRule type="cellIs" dxfId="28" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="7" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24">
-    <cfRule type="cellIs" dxfId="27" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="5" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="cellIs" dxfId="26" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="6" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:A7 C5:C7 C11:C12 A11:A12 C9 A9">
-    <cfRule type="cellIs" dxfId="25" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="24" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10 A10">
-    <cfRule type="cellIs" dxfId="23" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8 A8">
-    <cfRule type="cellIs" dxfId="22" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1325,21 +1384,21 @@
       <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="19" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
     <col min="6" max="7" width="10" customWidth="1"/>
-    <col min="8" max="8" width="10.88671875" customWidth="1"/>
-    <col min="9" max="10" width="6.6640625" customWidth="1"/>
-    <col min="11" max="11" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="6.6640625" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" customWidth="1"/>
+    <col min="9" max="10" width="6.7109375" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -1359,7 +1418,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -1390,7 +1449,7 @@
       <c r="Z2"/>
       <c r="AA2"/>
     </row>
-    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -1420,7 +1479,7 @@
       <c r="Z3"/>
       <c r="AA3"/>
     </row>
-    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
@@ -1451,7 +1510,7 @@
       <c r="Z4"/>
       <c r="AA4"/>
     </row>
-    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>8</v>
       </c>
@@ -1483,7 +1542,7 @@
       <c r="Z5"/>
       <c r="AA5"/>
     </row>
-    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>9</v>
       </c>
@@ -1510,7 +1569,7 @@
       <c r="S6"/>
       <c r="T6"/>
     </row>
-    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>10</v>
       </c>
@@ -1536,7 +1595,7 @@
       <c r="S7"/>
       <c r="T7"/>
     </row>
-    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>21</v>
       </c>
@@ -1563,7 +1622,7 @@
       <c r="S8"/>
       <c r="T8"/>
     </row>
-    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
@@ -1578,7 +1637,7 @@
         <v>15.377800000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>19</v>
       </c>
@@ -1593,7 +1652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>13</v>
       </c>
@@ -1611,7 +1670,7 @@
         <v>2.3513999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>14</v>
       </c>
@@ -1629,7 +1688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>22</v>
       </c>
@@ -1665,7 +1724,7 @@
       <c r="Z13"/>
       <c r="AA13"/>
     </row>
-    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
@@ -1683,7 +1742,7 @@
         <v>306.7</v>
       </c>
     </row>
-    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1708,7 +1767,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>25</v>
       </c>
@@ -1733,55 +1792,55 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="17"/>
       <c r="C19" s="17"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
     </row>
-    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="17"/>
       <c r="C20" s="17"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
     </row>
-    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="17"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
     </row>
-    <row r="22" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="17"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
     </row>
-    <row r="23" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="17"/>
       <c r="C23" s="17"/>
       <c r="H23" s="18"/>
     </row>
-    <row r="24" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="17"/>
       <c r="C24" s="17"/>
       <c r="H24" s="18"/>
     </row>
-    <row r="25" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="19"/>
       <c r="B25"/>
       <c r="C25"/>
@@ -1791,7 +1850,7 @@
       <c r="G25"/>
       <c r="H25"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
@@ -1805,7 +1864,7 @@
       <c r="S26" s="6"/>
       <c r="T26" s="6"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
@@ -1821,37 +1880,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C19:C22 A19:A22 C4:D4 A4 C13:C14 A13:A14">
-    <cfRule type="cellIs" dxfId="21" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="7" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24">
-    <cfRule type="cellIs" dxfId="20" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="5" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="cellIs" dxfId="19" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="6" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:D5 C6:C7 A5:A7 A9 C9">
-    <cfRule type="cellIs" dxfId="18" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:C12 A11:A12">
-    <cfRule type="cellIs" dxfId="17" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10 A10">
-    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8 A8">
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1874,21 +1933,21 @@
       <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="19" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
     <col min="6" max="7" width="10" customWidth="1"/>
-    <col min="8" max="8" width="10.88671875" customWidth="1"/>
-    <col min="9" max="10" width="6.6640625" customWidth="1"/>
-    <col min="11" max="11" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="6.6640625" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" customWidth="1"/>
+    <col min="9" max="10" width="6.7109375" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -1908,7 +1967,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -1939,7 +1998,7 @@
       <c r="Z2"/>
       <c r="AA2"/>
     </row>
-    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -1969,7 +2028,7 @@
       <c r="Z3"/>
       <c r="AA3"/>
     </row>
-    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
@@ -2000,7 +2059,7 @@
       <c r="Z4"/>
       <c r="AA4"/>
     </row>
-    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>8</v>
       </c>
@@ -2032,7 +2091,7 @@
       <c r="Z5"/>
       <c r="AA5"/>
     </row>
-    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>9</v>
       </c>
@@ -2059,7 +2118,7 @@
       <c r="S6"/>
       <c r="T6"/>
     </row>
-    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>10</v>
       </c>
@@ -2085,7 +2144,7 @@
       <c r="S7"/>
       <c r="T7"/>
     </row>
-    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>21</v>
       </c>
@@ -2112,7 +2171,7 @@
       <c r="S8"/>
       <c r="T8"/>
     </row>
-    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
@@ -2127,7 +2186,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>19</v>
       </c>
@@ -2142,7 +2201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>13</v>
       </c>
@@ -2160,7 +2219,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>14</v>
       </c>
@@ -2178,7 +2237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>22</v>
       </c>
@@ -2213,7 +2272,7 @@
       <c r="Z13"/>
       <c r="AA13"/>
     </row>
-    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
@@ -2231,7 +2290,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>24</v>
       </c>
@@ -2256,7 +2315,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>25</v>
       </c>
@@ -2281,55 +2340,55 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="17"/>
       <c r="C19" s="17"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
     </row>
-    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="17"/>
       <c r="C20" s="17"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
     </row>
-    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="17"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
     </row>
-    <row r="22" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="17"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
     </row>
-    <row r="23" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="17"/>
       <c r="C23" s="17"/>
       <c r="H23" s="18"/>
     </row>
-    <row r="24" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="17"/>
       <c r="C24" s="17"/>
       <c r="H24" s="18"/>
     </row>
-    <row r="25" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="19"/>
       <c r="B25"/>
       <c r="C25"/>
@@ -2339,7 +2398,7 @@
       <c r="G25"/>
       <c r="H25"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
@@ -2353,7 +2412,7 @@
       <c r="S26" s="6"/>
       <c r="T26" s="6"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
@@ -2369,27 +2428,27 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C19:C22 A19:A22 C4:D4 A4 C14 A13:A14 C13:D13">
-    <cfRule type="cellIs" dxfId="14" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="6" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24">
-    <cfRule type="cellIs" dxfId="13" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="cellIs" dxfId="12" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="5" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:D5 C6:C10 A5:A10">
-    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:C12 A11:A12">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2412,21 +2471,21 @@
       <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="19" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
     <col min="6" max="7" width="10" customWidth="1"/>
-    <col min="8" max="8" width="10.88671875" customWidth="1"/>
-    <col min="9" max="10" width="6.6640625" customWidth="1"/>
-    <col min="11" max="11" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="6.6640625" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" customWidth="1"/>
+    <col min="9" max="10" width="6.7109375" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -2446,7 +2505,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -2477,7 +2536,7 @@
       <c r="Z2"/>
       <c r="AA2"/>
     </row>
-    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -2507,7 +2566,7 @@
       <c r="Z3"/>
       <c r="AA3"/>
     </row>
-    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
@@ -2538,7 +2597,7 @@
       <c r="Z4"/>
       <c r="AA4"/>
     </row>
-    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>8</v>
       </c>
@@ -2570,7 +2629,7 @@
       <c r="Z5"/>
       <c r="AA5"/>
     </row>
-    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>9</v>
       </c>
@@ -2597,7 +2656,7 @@
       <c r="S6"/>
       <c r="T6"/>
     </row>
-    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>10</v>
       </c>
@@ -2623,7 +2682,7 @@
       <c r="S7"/>
       <c r="T7"/>
     </row>
-    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>21</v>
       </c>
@@ -2650,7 +2709,7 @@
       <c r="S8"/>
       <c r="T8"/>
     </row>
-    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
@@ -2665,7 +2724,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>19</v>
       </c>
@@ -2680,7 +2739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>13</v>
       </c>
@@ -2698,7 +2757,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>14</v>
       </c>
@@ -2716,7 +2775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>22</v>
       </c>
@@ -2751,7 +2810,7 @@
       <c r="Z13"/>
       <c r="AA13"/>
     </row>
-    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
@@ -2769,7 +2828,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>24</v>
       </c>
@@ -2794,7 +2853,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>25</v>
       </c>
@@ -2819,55 +2878,55 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="17"/>
       <c r="C19" s="17"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
     </row>
-    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="17"/>
       <c r="C20" s="17"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
     </row>
-    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="17"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
     </row>
-    <row r="22" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="17"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
     </row>
-    <row r="23" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="17"/>
       <c r="C23" s="17"/>
       <c r="H23" s="18"/>
     </row>
-    <row r="24" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="17"/>
       <c r="C24" s="17"/>
       <c r="H24" s="18"/>
     </row>
-    <row r="25" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="19"/>
       <c r="B25"/>
       <c r="C25"/>
@@ -2877,7 +2936,7 @@
       <c r="G25"/>
       <c r="H25"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
@@ -2891,7 +2950,7 @@
       <c r="S26" s="6"/>
       <c r="T26" s="6"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
@@ -2907,27 +2966,27 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C19:C22 A19:A22 C4:D4 A4 C14 A13:A14 C13:D13">
-    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="5" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24">
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:D5 C6:C10 A5:A10">
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:C12 A11:A12">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2942,29 +3001,29 @@
   </sheetPr>
   <dimension ref="A1:AA27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E9" sqref="E9"/>
       <selection pane="topRight" activeCell="E9" sqref="E9"/>
       <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
-      <selection pane="bottomRight" activeCell="H16" sqref="H16"/>
+      <selection pane="bottomRight" activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="19" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
     <col min="6" max="7" width="10" customWidth="1"/>
-    <col min="8" max="8" width="11.21875" customWidth="1"/>
-    <col min="9" max="10" width="6.6640625" customWidth="1"/>
-    <col min="11" max="11" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="6.6640625" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" customWidth="1"/>
+    <col min="9" max="10" width="6.7109375" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -2984,7 +3043,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -3015,7 +3074,7 @@
       <c r="Z2"/>
       <c r="AA2"/>
     </row>
-    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -3045,7 +3104,7 @@
       <c r="Z3"/>
       <c r="AA3"/>
     </row>
-    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
@@ -3076,7 +3135,7 @@
       <c r="Z4"/>
       <c r="AA4"/>
     </row>
-    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>8</v>
       </c>
@@ -3108,7 +3167,7 @@
       <c r="Z5"/>
       <c r="AA5"/>
     </row>
-    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>9</v>
       </c>
@@ -3135,7 +3194,7 @@
       <c r="S6"/>
       <c r="T6"/>
     </row>
-    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>10</v>
       </c>
@@ -3161,7 +3220,7 @@
       <c r="S7"/>
       <c r="T7"/>
     </row>
-    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3187,7 +3246,7 @@
       <c r="S8"/>
       <c r="T8"/>
     </row>
-    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
@@ -3202,7 +3261,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>19</v>
       </c>
@@ -3217,7 +3276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>13</v>
       </c>
@@ -3235,7 +3294,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>14</v>
       </c>
@@ -3253,7 +3312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>22</v>
       </c>
@@ -3288,7 +3347,7 @@
       <c r="Z13"/>
       <c r="AA13"/>
     </row>
-    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
@@ -3306,7 +3365,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3331,7 +3390,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>25</v>
       </c>
@@ -3356,55 +3415,55 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="17"/>
       <c r="C19" s="17"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
     </row>
-    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="17"/>
       <c r="C20" s="17"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
     </row>
-    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="17"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
     </row>
-    <row r="22" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="17"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
     </row>
-    <row r="23" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="17"/>
       <c r="C23" s="17"/>
       <c r="H23" s="18"/>
     </row>
-    <row r="24" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="17"/>
       <c r="C24" s="17"/>
       <c r="H24" s="18"/>
     </row>
-    <row r="25" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="19"/>
       <c r="B25"/>
       <c r="C25"/>
@@ -3414,7 +3473,7 @@
       <c r="G25"/>
       <c r="H25"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
@@ -3428,7 +3487,7 @@
       <c r="S26" s="6"/>
       <c r="T26" s="6"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
@@ -3444,26 +3503,554 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C19:C22 A19:A22 C4:D4 A4 C14 A13:A14 C13:D13">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:D5 C6:C10 A5:A10">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11:C12 A11:A12">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DFDF6AF-40A1-42AD-869A-32463F830960}">
+  <sheetPr>
+    <tabColor theme="3" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:AA27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="E9" sqref="E9"/>
+      <selection pane="topRight" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomRight" activeCell="G42" sqref="G42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="7" width="10" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" customWidth="1"/>
+    <col min="9" max="10" width="6.7109375" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="6.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
+      <c r="U2"/>
+      <c r="V2"/>
+      <c r="W2"/>
+      <c r="X2"/>
+      <c r="Y2"/>
+      <c r="Z2"/>
+      <c r="AA2"/>
+    </row>
+    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="R3"/>
+      <c r="S3"/>
+      <c r="T3"/>
+      <c r="U3"/>
+      <c r="V3"/>
+      <c r="W3"/>
+      <c r="X3"/>
+      <c r="Y3"/>
+      <c r="Z3"/>
+      <c r="AA3"/>
+    </row>
+    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="R4"/>
+      <c r="S4"/>
+      <c r="T4"/>
+      <c r="U4"/>
+      <c r="V4"/>
+      <c r="W4"/>
+      <c r="X4"/>
+      <c r="Y4"/>
+      <c r="Z4"/>
+      <c r="AA4"/>
+    </row>
+    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="15"/>
+      <c r="H5" s="8">
+        <v>0.23241000000000001</v>
+      </c>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="S5"/>
+      <c r="T5"/>
+      <c r="U5"/>
+      <c r="V5"/>
+      <c r="W5"/>
+      <c r="X5"/>
+      <c r="Y5"/>
+      <c r="Z5"/>
+      <c r="AA5"/>
+    </row>
+    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="7">
+        <v>0.13944000000000001</v>
+      </c>
+      <c r="I6"/>
+    </row>
+    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="7">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="I7"/>
+    </row>
+    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="7">
+        <f>H7/5</f>
+        <v>3.56E-2</v>
+      </c>
+      <c r="I8"/>
+    </row>
+    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="7">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="7">
+        <v>0.39100000000000001</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0.73599999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="7">
+        <v>0</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="7">
+        <v>87038</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0</v>
+      </c>
+      <c r="G15" s="7">
+        <v>0</v>
+      </c>
+      <c r="H15" s="7">
+        <v>0</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="7">
+        <v>0</v>
+      </c>
+      <c r="G16" s="7">
+        <v>0</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="17"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" s="17"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" s="17"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" s="17"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="6"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" s="17"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="6"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" s="17"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="6"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" s="17"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="6"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" s="17"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="6"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="I25" s="6"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="I26" s="6"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="I27" s="6"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C19:C22 A19:A22 C13:C14 A4 C4:D4 A13:A14">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A24">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5:A7 C5:C7 C11:C12 A11:A12 C9 A9">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10 A10">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C11:C12 A11:A12">
+  <conditionalFormatting sqref="C8 A8">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>

--- a/Libraries/Vehicle/Tire/Testrig_4Post/sm_car_data_Tire_Testrig_Post.xlsx
+++ b/Libraries/Vehicle/Tire/Testrig_4Post/sm_car_data_Tire_Testrig_Post.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt_srcR22a\Libraries\Vehicle\Tire\Testrig_4Post\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{281962AF-10F3-4D85-B9E6-8A3282EEFB9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3501A83-AF65-4D05-9916-0F50B1727D5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6990" yWindow="2025" windowWidth="20595" windowHeight="11235" tabRatio="868" activeTab="1" xr2:uid="{77C5F530-BF82-43C8-8187-4F4154957BDB}"/>
+    <workbookView xWindow="3060" yWindow="1695" windowWidth="21555" windowHeight="11295" tabRatio="868" activeTab="3" xr2:uid="{77C5F530-BF82-43C8-8187-4F4154957BDB}"/>
   </bookViews>
   <sheets>
     <sheet name="Tir_213_40R21" sheetId="7" r:id="rId1"/>
     <sheet name="Tir_214_10R39" sheetId="12" r:id="rId2"/>
     <sheet name="Tir_235_50R24" sheetId="8" r:id="rId3"/>
-    <sheet name="Tir_270_70R22" sheetId="6" r:id="rId4"/>
-    <sheet name="Tir_145_70R13" sheetId="9" r:id="rId5"/>
-    <sheet name="Tir_430_50R38" sheetId="10" r:id="rId6"/>
-    <sheet name="Tir_190_50R10" sheetId="11" r:id="rId7"/>
+    <sheet name="Tir_235_80R17" sheetId="13" r:id="rId4"/>
+    <sheet name="Tir_270_70R22" sheetId="6" r:id="rId5"/>
+    <sheet name="Tir_145_70R13" sheetId="9" r:id="rId6"/>
+    <sheet name="Tir_430_50R38" sheetId="10" r:id="rId7"/>
+    <sheet name="Tir_190_50R10" sheetId="11" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="45">
   <si>
     <t>Units</t>
   </si>
@@ -171,6 +172,9 @@
   </si>
   <si>
     <t>Testrig_Post_214_10R39</t>
+  </si>
+  <si>
+    <t>Testrig_Post_235_80R17</t>
   </si>
 </sst>
 </file>
@@ -279,7 +283,42 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="35">
+  <dxfs count="40">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1188,27 +1227,27 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4:A14 C5:C14">
-    <cfRule type="cellIs" dxfId="34" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:A24">
-    <cfRule type="cellIs" dxfId="33" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="7" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:C17 G17:H17">
-    <cfRule type="cellIs" dxfId="32" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:D4 C19:C22">
-    <cfRule type="cellIs" dxfId="31" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="9" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="30" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="5" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1223,7 +1262,7 @@
   </sheetPr>
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E9" sqref="E9"/>
       <selection pane="topRight" activeCell="E9" sqref="E9"/>
@@ -1571,27 +1610,27 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4:A14 C5:C14">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:A24">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:C17 G17:H17">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:D4 C19:C22">
-    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="5" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1987,6 +2026,388 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDEDA3D6-214A-416B-9677-98AA947B5549}">
+  <sheetPr>
+    <tabColor theme="3" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:J24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="E9" sqref="E9"/>
+      <selection pane="topRight" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomRight" activeCell="L8" sqref="L8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="14" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="7" width="10" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" customWidth="1"/>
+    <col min="9" max="10" width="6.7109375" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="6.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="12"/>
+      <c r="H5" s="7">
+        <v>0.40300000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="6">
+        <v>0.1905</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="6">
+        <v>0.23499999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="6">
+        <v>0.152</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="6">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="6">
+        <v>1.2252000000000001</v>
+      </c>
+      <c r="I11" s="6">
+        <v>2.3513999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="6">
+        <v>0</v>
+      </c>
+      <c r="I12" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="6">
+        <v>306652</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="6">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="6">
+        <v>0</v>
+      </c>
+      <c r="G15" s="6">
+        <v>0</v>
+      </c>
+      <c r="H15" s="6">
+        <v>0</v>
+      </c>
+      <c r="J15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="6">
+        <v>0</v>
+      </c>
+      <c r="G16" s="6">
+        <v>0</v>
+      </c>
+      <c r="H16" s="6">
+        <v>0</v>
+      </c>
+      <c r="J16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="10"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C19" s="14"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C20" s="14"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C23" s="14"/>
+      <c r="H23" s="15"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C24" s="14"/>
+      <c r="H24" s="15"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A4:A14 C5:C14">
+    <cfRule type="cellIs" dxfId="24" priority="2" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A19:A24">
+    <cfRule type="cellIs" dxfId="23" priority="4" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B17:C17 G17:H17">
+    <cfRule type="cellIs" dxfId="22" priority="1" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4:D4 C19:C22">
+    <cfRule type="cellIs" dxfId="21" priority="5" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="cellIs" dxfId="20" priority="3" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68EE8F79-458C-42E5-8226-ADAAA3782419}">
   <sheetPr>
     <tabColor theme="3" tint="0.59999389629810485"/>
@@ -2345,27 +2766,27 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4:A14 C6:C12">
-    <cfRule type="cellIs" dxfId="24" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:A24">
-    <cfRule type="cellIs" dxfId="23" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="5" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:C17 G17:H17">
-    <cfRule type="cellIs" dxfId="22" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:D5">
-    <cfRule type="cellIs" dxfId="21" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:D13 C14 C19:C22">
-    <cfRule type="cellIs" dxfId="20" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="7" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2373,7 +2794,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90ED5FD0-D20B-4678-B433-989EA68BDD2C}">
   <sheetPr>
     <tabColor theme="3" tint="0.59999389629810485"/>
@@ -2732,27 +3153,27 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4:A14 C6:C12">
-    <cfRule type="cellIs" dxfId="19" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:A24">
-    <cfRule type="cellIs" dxfId="18" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:C17 G17:H17">
-    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:D5">
-    <cfRule type="cellIs" dxfId="16" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:D13 C14 C19:C22">
-    <cfRule type="cellIs" dxfId="15" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2760,7 +3181,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38495685-7924-4403-B99F-D47523660248}">
   <sheetPr>
     <tabColor theme="3" tint="0.59999389629810485"/>
@@ -3118,27 +3539,27 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4:A14 C6:C12">
-    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:A24">
-    <cfRule type="cellIs" dxfId="13" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:C17 G17:H17">
-    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:D5">
-    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:D13 C14 C19:C22">
-    <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3146,7 +3567,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DFDF6AF-40A1-42AD-869A-32463F830960}">
   <sheetPr>
     <tabColor theme="3" tint="0.59999389629810485"/>
@@ -3502,27 +3923,27 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4:A14 C5:C14">
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:A24">
-    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:C17 G17:H17">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:D4 C19:C22">
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="8" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
